--- a/book/_data/organic_ligands_inventory_smiles.xlsx
+++ b/book/_data/organic_ligands_inventory_smiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gowustl-my.sharepoint.com/personal/z_z_wustl_edu/Documents/CHEM 508/ai4chem/book/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_78E21AEBD885BF4B0FF3A98AD976BEC782AB5358" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A452F083-2C51-44FA-B91E-DDE7E3F00295}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_78E21AEBD885BF4B0FF3A98AD976BEC782AB5358" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{017E1A47-4FF3-41E5-A0AC-BAAE7F8AA047}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="2775" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="270">
   <si>
     <t>MW</t>
   </si>
@@ -825,6 +825,24 @@
   </si>
   <si>
     <t>smiles</t>
+  </si>
+  <si>
+    <t>1-Ethyl-3-vinylimidazolium bromide</t>
+  </si>
+  <si>
+    <t>C=C[N+]1=CN(CC)C=C1.[Br-]</t>
+  </si>
+  <si>
+    <t>3-Ethyl-2-methylbenzo[d]thiazol-3-ium iodide</t>
+  </si>
+  <si>
+    <t>CC[N+]1=C(C)SC2=CC=CC=C21.[I-]</t>
+  </si>
+  <si>
+    <t>1-Methyl-1,4-diazabicyclo[2.2.2]octan-1-iumchloride</t>
+  </si>
+  <si>
+    <t>[Cl-].N12CC[N+](C)(CC1)CC2</t>
   </si>
 </sst>
 </file>
@@ -903,6 +921,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1191,11 +1213,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1226,166 +1248,166 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="28.5">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>264</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>265</v>
+      </c>
+      <c r="C3" s="2">
+        <v>203.083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="42.75">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>268</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>269</v>
+      </c>
+      <c r="C4" s="2">
+        <v>162.66</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="42.75">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>267</v>
+      </c>
+      <c r="C6" s="2">
+        <v>305.18400000000003</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.5">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.5">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.5">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.5">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.5">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>38</v>
@@ -1393,10 +1415,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>38</v>
@@ -1404,10 +1426,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>38</v>
@@ -1415,10 +1437,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>38</v>
@@ -1426,307 +1448,307 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="28.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="28.5">
       <c r="A26" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="28.5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="28.5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.5">
       <c r="A29" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.5">
       <c r="A30" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.5">
       <c r="A31" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="28.5">
       <c r="A32" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.5">
       <c r="A34" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="28.5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28.5">
       <c r="A37" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="28.5">
       <c r="A39" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="28.5">
+      <c r="A42" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="3" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="28.5">
-      <c r="A43" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="28.5">
-      <c r="A44" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="28.5">
-      <c r="A45" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="28.5">
       <c r="A46" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="28.5">
       <c r="A47" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="28.5">
       <c r="A48" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>122</v>
@@ -1734,10 +1756,10 @@
     </row>
     <row r="49" spans="1:3" ht="28.5">
       <c r="A49" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>122</v>
@@ -1745,384 +1767,384 @@
     </row>
     <row r="50" spans="1:3" ht="28.5">
       <c r="A50" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="28.5">
       <c r="A51" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="28.5">
       <c r="A52" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="28.5">
       <c r="A53" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="28.5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="28.5">
       <c r="A56" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="28.5">
       <c r="A58" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="28.5">
       <c r="A59" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="28.5">
       <c r="A62" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="28.5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="28.5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="28.5">
       <c r="A71" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="28.5">
       <c r="A72" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="28.5">
-      <c r="A78" s="3" t="s">
+    <row r="81" spans="1:3" ht="28.5">
+      <c r="A81" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="28.5">
-      <c r="A79" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="28.5">
-      <c r="A80" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="28.5">
       <c r="A82" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" ht="28.5">
       <c r="A83" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="28.5">
+    <row r="84" spans="1:3">
       <c r="A84" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>212</v>
@@ -2130,21 +2152,21 @@
     </row>
     <row r="85" spans="1:3" ht="28.5">
       <c r="A85" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="28.5">
+    <row r="86" spans="1:3">
       <c r="A86" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>212</v>
@@ -2152,10 +2174,10 @@
     </row>
     <row r="87" spans="1:3" ht="28.5">
       <c r="A87" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>212</v>
@@ -2163,43 +2185,43 @@
     </row>
     <row r="88" spans="1:3" ht="28.5">
       <c r="A88" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="28.5">
       <c r="A89" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="28.5">
       <c r="A90" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="28.5">
       <c r="A91" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>231</v>
@@ -2207,100 +2229,133 @@
     </row>
     <row r="92" spans="1:3" ht="28.5">
       <c r="A92" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="28.5">
       <c r="A93" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="28.5">
       <c r="A94" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="28.5">
       <c r="A95" s="3" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="28.5">
       <c r="A96" s="3" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="28.5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="3" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="28.5">
       <c r="A99" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="28.5">
+      <c r="A101" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>261</v>
       </c>
     </row>
